--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>0.1767265452731047</v>
+        <v>0.5279095536463333</v>
       </c>
       <c r="R2">
-        <v>0.1767265452731047</v>
+        <v>4.751185982816999</v>
       </c>
       <c r="S2">
-        <v>5.464232621399626E-05</v>
+        <v>0.0001606651747997852</v>
       </c>
       <c r="T2">
-        <v>5.464232621399626E-05</v>
+        <v>0.0001606651747997852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>76.4459289081933</v>
+        <v>83.62652888879333</v>
       </c>
       <c r="R3">
-        <v>76.4459289081933</v>
+        <v>752.6387599991399</v>
       </c>
       <c r="S3">
-        <v>0.02363642303242134</v>
+        <v>0.02545108492357095</v>
       </c>
       <c r="T3">
-        <v>0.02363642303242134</v>
+        <v>0.02545108492357095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>15.83877664027011</v>
+        <v>17.604518156395</v>
       </c>
       <c r="R4">
-        <v>15.83877664027011</v>
+        <v>158.440663407555</v>
       </c>
       <c r="S4">
-        <v>0.004897213368092557</v>
+        <v>0.005357798447341738</v>
       </c>
       <c r="T4">
-        <v>0.004897213368092557</v>
+        <v>0.005357798447341739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>5.066787591892409</v>
+        <v>13.95253444351522</v>
       </c>
       <c r="R5">
-        <v>5.066787591892409</v>
+        <v>125.572809991637</v>
       </c>
       <c r="S5">
-        <v>0.001566607099263813</v>
+        <v>0.004246345552536046</v>
       </c>
       <c r="T5">
-        <v>0.001566607099263813</v>
+        <v>0.004246345552536046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>2191.721019862374</v>
+        <v>2210.230931895949</v>
       </c>
       <c r="R6">
-        <v>2191.721019862374</v>
+        <v>19892.07838706354</v>
       </c>
       <c r="S6">
-        <v>0.6776612690092476</v>
+        <v>0.6726666273951438</v>
       </c>
       <c r="T6">
-        <v>0.6776612690092476</v>
+        <v>0.6726666273951438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>454.1010906293608</v>
+        <v>465.2835779197617</v>
       </c>
       <c r="R7">
-        <v>454.1010906293608</v>
+        <v>4187.552201277856</v>
       </c>
       <c r="S7">
-        <v>0.1404041474921381</v>
+        <v>0.1416054452161499</v>
       </c>
       <c r="T7">
-        <v>0.1404041474921381</v>
+        <v>0.1416054452161499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>0.9382692070649546</v>
+        <v>2.565640897073</v>
       </c>
       <c r="R8">
-        <v>0.9382692070649546</v>
+        <v>23.090768073657</v>
       </c>
       <c r="S8">
-        <v>0.0002901047604917636</v>
+        <v>0.0007808328914575122</v>
       </c>
       <c r="T8">
-        <v>0.0002901047604917636</v>
+        <v>0.0007808328914575124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>405.8635390014057</v>
+        <v>406.42500427466</v>
       </c>
       <c r="R9">
-        <v>405.8635390014057</v>
+        <v>3657.82503847194</v>
       </c>
       <c r="S9">
-        <v>0.1254895118456032</v>
+        <v>0.1236922952118755</v>
       </c>
       <c r="T9">
-        <v>0.1254895118456032</v>
+        <v>0.1236922952118755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>84.0905726764456</v>
+        <v>85.55797379179499</v>
       </c>
       <c r="R10">
-        <v>84.0905726764456</v>
+        <v>770.0217641261549</v>
       </c>
       <c r="S10">
-        <v>0.0260000810665277</v>
+        <v>0.02603890518712467</v>
       </c>
       <c r="T10">
-        <v>0.0260000810665277</v>
+        <v>0.02603890518712468</v>
       </c>
     </row>
   </sheetData>
